--- a/doc/Template/Uncertainty_Template_Blanco.xlsx
+++ b/doc/Template/Uncertainty_Template_Blanco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7AEC5-DDA5-48B4-A3F6-FCA817F56EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13734242-C0E7-4234-AB5B-277A4B605FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>Nature</t>
   </si>
@@ -69,9 +69,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
     <t>Missing Information</t>
   </si>
   <si>
@@ -84,132 +81,6 @@
     <t>Structural</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.4</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
     <t>Propability of Revisability</t>
   </si>
   <si>
@@ -255,12 +126,6 @@
     <t>Yes (# 2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.4</t>
-  </si>
-  <si>
     <t>Unlikely</t>
   </si>
   <si>
@@ -268,10 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">Location
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architectural Element
 </t>
   </si>
   <si>
@@ -346,6 +207,106 @@
       </rPr>
       <t xml:space="preserve">                                                 Categories</t>
     </r>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>Uncertainty Type</t>
+  </si>
+  <si>
+    <t>Architectural Element
+Type</t>
   </si>
 </sst>
 </file>
@@ -434,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -517,17 +478,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,29 +811,29 @@
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -887,78 +845,76 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="A3" s="17"/>
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -970,123 +926,123 @@
         <v>12</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="32">
-        <v>2</v>
+      <c r="A5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="26" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>10</v>
@@ -1098,20 +1054,20 @@
         <v>9</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="28"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -1120,16 +1076,14 @@
       <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="32"/>
-      <c r="C8" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="1"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="28"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -1138,22 +1092,22 @@
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="32">
-        <v>3</v>
+      <c r="A9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -1167,16 +1121,16 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -1190,16 +1144,14 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="1"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -1213,16 +1165,14 @@
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="1"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -1236,12 +1186,12 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32">
-        <v>4</v>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="32"/>
@@ -1261,11 +1211,9 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -1284,11 +1232,9 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1307,11 +1253,9 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -1330,12 +1274,12 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32">
-        <v>5</v>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="32"/>
@@ -1355,11 +1299,9 @@
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -1378,11 +1320,9 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -1402,11 +1342,11 @@
     </row>
     <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="12">
-        <v>6</v>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="12"/>
@@ -1429,12 +1369,12 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32">
-        <v>7</v>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="32"/>
@@ -1457,11 +1397,9 @@
       <c r="V21" s="26"/>
     </row>
     <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -1483,11 +1421,9 @@
       <c r="V22" s="26"/>
     </row>
     <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -1509,12 +1445,12 @@
       <c r="V23" s="26"/>
     </row>
     <row r="24" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32">
-        <v>8</v>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="32"/>
@@ -1537,11 +1473,9 @@
       <c r="V24" s="26"/>
     </row>
     <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="1"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -1563,11 +1497,9 @@
       <c r="V25" s="26"/>
     </row>
     <row r="26" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="1"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -1589,11 +1521,9 @@
       <c r="V26" s="26"/>
     </row>
     <row r="27" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="1"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -1615,18 +1545,18 @@
       <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32">
-        <v>9</v>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -1643,16 +1573,14 @@
       <c r="V28" s="26"/>
     </row>
     <row r="29" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="1"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -1669,12 +1597,12 @@
       <c r="V29" s="26"/>
     </row>
     <row r="30" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32">
-        <v>10</v>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="32"/>
@@ -1697,11 +1625,9 @@
       <c r="V30" s="26"/>
     </row>
     <row r="31" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
@@ -1722,11 +1648,9 @@
       <c r="V31" s="26"/>
     </row>
     <row r="32" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -1747,11 +1671,9 @@
       <c r="V32" s="26"/>
     </row>
     <row r="33" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -1772,11 +1694,9 @@
       <c r="V33" s="26"/>
     </row>
     <row r="34" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="C34" s="14"/>
       <c r="D34" s="1"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -1797,11 +1717,9 @@
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="C35" s="12"/>
       <c r="D35" s="1"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
@@ -1822,12 +1740,12 @@
       <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32">
-        <v>11</v>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="32"/>
@@ -1846,11 +1764,9 @@
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="1"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -1868,11 +1784,9 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="1"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -1890,11 +1804,9 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="C39" s="12"/>
       <c r="D39" s="1"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -1912,11 +1824,9 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="1"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -1934,11 +1844,9 @@
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="1"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
@@ -1956,11 +1864,9 @@
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="C42" s="14"/>
       <c r="D42" s="1"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
@@ -1978,11 +1884,9 @@
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="C43" s="12"/>
       <c r="D43" s="1"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -2001,11 +1905,11 @@
     </row>
     <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="12">
-        <v>12</v>
+      <c r="B44" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
@@ -2025,11 +1929,11 @@
     </row>
     <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
-      <c r="B45" s="21">
-        <v>13</v>
+      <c r="B45" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="21"/>
@@ -2049,11 +1953,11 @@
     </row>
     <row r="46" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="14">
-        <v>14</v>
+      <c r="B46" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
@@ -4881,8 +4785,7 @@
       <c r="S210" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="I9:I12"/>
+  <mergeCells count="68">
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I13:I16"/>
@@ -4895,6 +4798,7 @@
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="H30:H35"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="H36:H43"/>
     <mergeCell ref="I36:I43"/>
     <mergeCell ref="B36:B43"/>
@@ -4904,25 +4808,21 @@
     <mergeCell ref="F36:F43"/>
     <mergeCell ref="E36:E43"/>
     <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E30:E35"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A28:A29"/>
@@ -4932,6 +4832,12 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="A13:A16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G21:G23"/>
     <mergeCell ref="J1:S1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A9:A12"/>
@@ -4944,9 +4850,10 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B13:B16"/>
     <mergeCell ref="F5:F8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">
@@ -4959,7 +4866,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{88C2F0CE-36A7-4946-81BA-22BE3BD7B977}">
       <formula1>"Closed Set, Open Set, Unknown, Depending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576" xr:uid="{FFED0B4C-06BF-41EF-891B-B9A1F1465774}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 H9 H13:H28 H30:H1048576" xr:uid="{FFED0B4C-06BF-41EF-891B-B9A1F1465774}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N1048576" xr:uid="{0FA82C9B-9A65-45E4-B8E2-2BA75195EE7A}">

--- a/doc/Template/Uncertainty_Template_Blanco.xlsx
+++ b/doc/Template/Uncertainty_Template_Blanco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13734242-C0E7-4234-AB5B-277A4B605FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C88B042-47A8-42B6-AE32-87BC0674D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Missing Information</t>
-  </si>
-  <si>
-    <t>Architecture-related Categories</t>
   </si>
   <si>
     <t>Assumption</t>
@@ -307,6 +304,9 @@
   <si>
     <t>Architectural Element
 Type</t>
+  </si>
+  <si>
+    <t>ADD-related Categories</t>
   </si>
 </sst>
 </file>
@@ -478,6 +478,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -486,12 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,33 +807,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -845,43 +845,43 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -891,30 +891,30 @@
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -926,25 +926,25 @@
         <v>12</v>
       </c>
       <c r="K4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>11</v>
@@ -954,56 +954,56 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>54</v>
+      <c r="A5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>6</v>
@@ -1013,36 +1013,36 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>10</v>
@@ -1054,21 +1054,21 @@
         <v>9</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -1076,15 +1076,15 @@
       <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="23"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -1092,23 +1092,23 @@
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>55</v>
+      <c r="A9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="24"/>
@@ -1121,17 +1121,17 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -1144,15 +1144,15 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="10"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
@@ -1165,15 +1165,15 @@
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="10"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -1186,19 +1186,19 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
-        <v>56</v>
+      <c r="A13" s="29"/>
+      <c r="B13" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -1211,15 +1211,15 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="15"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -1232,15 +1232,15 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -1253,15 +1253,15 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -1274,19 +1274,19 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>57</v>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
@@ -1299,15 +1299,15 @@
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -1320,15 +1320,15 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -1343,10 +1343,10 @@
     <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="12"/>
@@ -1369,19 +1369,19 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
-        <v>59</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -1397,15 +1397,15 @@
       <c r="V21" s="26"/>
     </row>
     <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -1421,15 +1421,15 @@
       <c r="V22" s="26"/>
     </row>
     <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -1445,19 +1445,19 @@
       <c r="V23" s="26"/>
     </row>
     <row r="24" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
-        <v>60</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -1473,15 +1473,15 @@
       <c r="V24" s="26"/>
     </row>
     <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
@@ -1497,15 +1497,15 @@
       <c r="V25" s="26"/>
     </row>
     <row r="26" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="10"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -1521,15 +1521,15 @@
       <c r="V26" s="26"/>
     </row>
     <row r="27" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -1545,19 +1545,19 @@
       <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
-        <v>61</v>
+      <c r="A28" s="29"/>
+      <c r="B28" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
@@ -1573,15 +1573,15 @@
       <c r="V28" s="26"/>
     </row>
     <row r="29" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="10"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -1597,19 +1597,19 @@
       <c r="V29" s="26"/>
     </row>
     <row r="30" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
-        <v>62</v>
+      <c r="A30" s="29"/>
+      <c r="B30" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
@@ -1625,15 +1625,15 @@
       <c r="V30" s="26"/>
     </row>
     <row r="31" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="12"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="25"/>
@@ -1648,15 +1648,15 @@
       <c r="V31" s="26"/>
     </row>
     <row r="32" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="12"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="25"/>
@@ -1671,15 +1671,15 @@
       <c r="V32" s="26"/>
     </row>
     <row r="33" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="12"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="25"/>
@@ -1694,15 +1694,15 @@
       <c r="V33" s="26"/>
     </row>
     <row r="34" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="14"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="25"/>
@@ -1717,15 +1717,15 @@
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="12"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
@@ -1740,19 +1740,19 @@
       <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32" t="s">
-        <v>63</v>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
@@ -1764,15 +1764,15 @@
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="12"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
@@ -1784,15 +1784,15 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="12"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="5"/>
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
@@ -1804,15 +1804,15 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="12"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="5"/>
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
@@ -1824,15 +1824,15 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="12"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="12"/>
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
@@ -1844,15 +1844,15 @@
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="12"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="12"/>
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
@@ -1864,15 +1864,15 @@
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="14"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="14"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -1884,15 +1884,15 @@
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="12"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="5"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -1906,10 +1906,10 @@
     <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
@@ -1930,10 +1930,10 @@
     <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="21"/>
@@ -1954,10 +1954,10 @@
     <row r="46" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
@@ -4786,58 +4786,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G21:G23"/>
     <mergeCell ref="J1:S1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A9:A12"/>
@@ -4854,6 +4802,58 @@
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="I9:I12"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H13:H16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">
